--- a/Seminarska naloga/Lestvica.xlsx
+++ b/Seminarska naloga/Lestvica.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Liverpool</t>
   </si>
@@ -167,6 +167,21 @@
   </si>
   <si>
     <t>Remiji</t>
+  </si>
+  <si>
+    <t>Rumeni</t>
+  </si>
+  <si>
+    <t>Rdeči</t>
+  </si>
+  <si>
+    <t>Gledalci</t>
+  </si>
+  <si>
+    <t>Štadion</t>
+  </si>
+  <si>
+    <t>Domače tekme</t>
   </si>
 </sst>
 </file>
@@ -174,7 +189,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -209,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -322,13 +337,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -364,6 +388,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -665,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -678,10 +726,12 @@
     <col min="7" max="7" width="12.140625" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
@@ -712,11 +762,26 @@
       <c r="J1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -724,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="11">
-        <f>SUM(D2+E2+F2)</f>
+        <f t="shared" ref="C2:C21" si="0">SUM(D2+E2+F2)</f>
         <v>20</v>
       </c>
       <c r="D2" s="12">
@@ -743,18 +808,33 @@
         <v>8</v>
       </c>
       <c r="I2" s="12">
-        <f>SUM(G2-H2)</f>
+        <f t="shared" ref="I2:I21" si="1">SUM(G2-H2)</f>
         <v>40</v>
       </c>
       <c r="J2" s="14">
-        <f>SUM(D2*3+E2)</f>
+        <f t="shared" ref="J2:J21" si="2">SUM(D2*3+E2)</f>
         <v>54</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="22">
+        <v>18</v>
+      </c>
+      <c r="L2" s="16">
+        <v>1</v>
+      </c>
+      <c r="M2" s="19">
+        <v>10</v>
+      </c>
+      <c r="N2" s="20">
+        <v>527420</v>
+      </c>
+      <c r="O2" s="17">
+        <v>54074</v>
+      </c>
+      <c r="P2" s="1">
         <v>951000000</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -762,7 +842,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="11">
-        <f>SUM(D3+E3+F3)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D3" s="12">
@@ -781,18 +861,34 @@
         <v>16</v>
       </c>
       <c r="I3" s="12">
-        <f>SUM(G3-H3)</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="J3" s="14">
-        <f>SUM(D3*3+E3)</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="22">
+        <v>21</v>
+      </c>
+      <c r="L3" s="16">
+        <v>1</v>
+      </c>
+      <c r="M3" s="19">
+        <v>10</v>
+      </c>
+      <c r="N3" s="20">
+        <f>SUM(595185-54511)</f>
+        <v>540674</v>
+      </c>
+      <c r="O3" s="17">
+        <v>55097</v>
+      </c>
+      <c r="P3" s="1">
         <v>1130000000</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -800,7 +896,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="11">
-        <f>SUM(D4+E4+F4)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D4" s="12">
@@ -819,18 +915,33 @@
         <v>21</v>
       </c>
       <c r="I4" s="12">
-        <f>SUM(G4-H4)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="J4" s="14">
-        <f>SUM(D4*3+E4)</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="22">
+        <v>28</v>
+      </c>
+      <c r="L4" s="16">
+        <v>1</v>
+      </c>
+      <c r="M4" s="19">
+        <v>9</v>
+      </c>
+      <c r="N4" s="20">
+        <v>460239</v>
+      </c>
+      <c r="O4" s="17">
+        <v>90000</v>
+      </c>
+      <c r="P4" s="1">
         <v>826500000</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -838,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="11">
-        <f>SUM(D5+E5+F5)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D5" s="12">
@@ -857,18 +968,34 @@
         <v>16</v>
       </c>
       <c r="I5" s="12">
-        <f>SUM(G5-H5)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="J5" s="14">
-        <f>SUM(D5*3+E5)</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="22">
+        <v>27</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0</v>
+      </c>
+      <c r="M5" s="19">
+        <v>10</v>
+      </c>
+      <c r="N5" s="20">
+        <f>SUM(445614-40668)</f>
+        <v>404946</v>
+      </c>
+      <c r="O5" s="17">
+        <v>41837</v>
+      </c>
+      <c r="P5" s="1">
         <v>907250000</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:16">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -876,7 +1003,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="11">
-        <f>SUM(D6+E6+F6)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D6" s="12">
@@ -895,18 +1022,34 @@
         <v>30</v>
       </c>
       <c r="I6" s="12">
-        <f>SUM(G6-H6)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="J6" s="14">
-        <f>SUM(D6*3+E6)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="22">
+        <v>38</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0</v>
+      </c>
+      <c r="M6" s="19">
+        <v>10</v>
+      </c>
+      <c r="N6" s="20">
+        <f>SUM(658902-59887)</f>
+        <v>599015</v>
+      </c>
+      <c r="O6" s="17">
+        <v>60362</v>
+      </c>
+      <c r="P6" s="1">
         <v>604500000</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:16">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -914,7 +1057,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="11">
-        <f>SUM(D7+E7+F7)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D7" s="12">
@@ -933,18 +1076,33 @@
         <v>32</v>
       </c>
       <c r="I7" s="12">
-        <f>SUM(G7-H7)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J7" s="14">
-        <f>SUM(D7*3+E7)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="22">
+        <v>39</v>
+      </c>
+      <c r="L7" s="16">
+        <v>3</v>
+      </c>
+      <c r="M7" s="19">
+        <v>10</v>
+      </c>
+      <c r="N7" s="20">
+        <v>744997</v>
+      </c>
+      <c r="O7" s="17">
+        <v>75731</v>
+      </c>
+      <c r="P7" s="1">
         <v>774000000</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -952,7 +1110,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="11">
-        <f>SUM(D8+E8+F8)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D8" s="12">
@@ -971,18 +1129,34 @@
         <v>23</v>
       </c>
       <c r="I8" s="12">
-        <f>SUM(G8-H8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J8" s="14">
-        <f>SUM(D8*3+E8)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="22">
+        <v>35</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0</v>
+      </c>
+      <c r="M8" s="19">
+        <v>10</v>
+      </c>
+      <c r="N8" s="20">
+        <f>SUM(340886-30666)</f>
+        <v>310220</v>
+      </c>
+      <c r="O8" s="17">
+        <v>31700</v>
+      </c>
+      <c r="P8" s="1">
         <v>231500000</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:16">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -990,7 +1164,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="11">
-        <f>SUM(D9+E9+F9)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D9" s="12">
@@ -1009,18 +1183,33 @@
         <v>23</v>
       </c>
       <c r="I9" s="12">
-        <f>SUM(G9-H9)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J9" s="14">
-        <f>SUM(D9*3+E9)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="22">
+        <v>31</v>
+      </c>
+      <c r="L9" s="16">
+        <v>4</v>
+      </c>
+      <c r="M9" s="19">
+        <v>10</v>
+      </c>
+      <c r="N9" s="20">
+        <v>319354</v>
+      </c>
+      <c r="O9" s="17">
+        <v>32500</v>
+      </c>
+      <c r="P9" s="1">
         <v>346500000</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1028,7 +1217,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="11">
-        <f>SUM(D10+E10+F10)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D10" s="12">
@@ -1047,18 +1236,33 @@
         <v>28</v>
       </c>
       <c r="I10" s="12">
-        <f>SUM(G10-H10)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="J10" s="14">
-        <f>SUM(D10*3+E10)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="22">
+        <v>33</v>
+      </c>
+      <c r="L10" s="16">
+        <v>2</v>
+      </c>
+      <c r="M10" s="12">
+        <v>11</v>
+      </c>
+      <c r="N10" s="20">
+        <v>223051</v>
+      </c>
+      <c r="O10" s="17">
+        <v>22100</v>
+      </c>
+      <c r="P10" s="1">
         <v>185000000</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1066,7 +1270,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11">
-        <f>SUM(D11+E11+F11)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D11" s="12">
@@ -1085,18 +1289,34 @@
         <v>30</v>
       </c>
       <c r="I11" s="12">
-        <f>SUM(G11-H11)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J11" s="14">
-        <f>SUM(D11*3+E11)</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="22">
+        <v>28</v>
+      </c>
+      <c r="L11" s="16">
+        <v>2</v>
+      </c>
+      <c r="M11" s="19">
+        <v>10</v>
+      </c>
+      <c r="N11" s="20">
+        <f>SUM(423211-39052)</f>
+        <v>384159</v>
+      </c>
+      <c r="O11" s="17">
+        <v>40157</v>
+      </c>
+      <c r="P11" s="1">
         <v>445500000</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:16">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1104,7 +1324,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="11">
-        <f>SUM(D12+E12+F12)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D12" s="12">
@@ -1123,18 +1343,34 @@
         <v>30</v>
       </c>
       <c r="I12" s="12">
-        <f>SUM(G12-H12)</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="J12" s="14">
-        <f>SUM(D12*3+E12)</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="22">
+        <v>41</v>
+      </c>
+      <c r="L12" s="16">
+        <v>1</v>
+      </c>
+      <c r="M12" s="19">
+        <v>10</v>
+      </c>
+      <c r="N12" s="20">
+        <f>SUM(628826-59870)</f>
+        <v>568956</v>
+      </c>
+      <c r="O12" s="17">
+        <v>60000</v>
+      </c>
+      <c r="P12" s="1">
         <v>298000000</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -1142,7 +1378,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="11">
-        <f>SUM(D13+E13+F13)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D13" s="12">
@@ -1161,18 +1397,34 @@
         <v>37</v>
       </c>
       <c r="I13" s="12">
-        <f>SUM(G13-H13)</f>
+        <f t="shared" si="1"/>
         <v>-9</v>
       </c>
       <c r="J13" s="14">
-        <f>SUM(D13*3+E13)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="22">
+        <v>32</v>
+      </c>
+      <c r="L13" s="16">
+        <v>1</v>
+      </c>
+      <c r="M13" s="19">
+        <v>10</v>
+      </c>
+      <c r="N13" s="20">
+        <f>SUM(115803-10261)</f>
+        <v>105542</v>
+      </c>
+      <c r="O13" s="17">
+        <v>11464</v>
+      </c>
+      <c r="P13" s="1">
         <v>210500000</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -1180,7 +1432,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="11">
-        <f>SUM(D14+E14+F14)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D14" s="12">
@@ -1199,18 +1451,33 @@
         <v>27</v>
       </c>
       <c r="I14" s="12">
-        <f>SUM(G14-H14)</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="J14" s="14">
-        <f>SUM(D14*3+E14)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="22">
+        <v>36</v>
+      </c>
+      <c r="L14" s="16">
+        <v>3</v>
+      </c>
+      <c r="M14" s="19">
+        <v>10</v>
+      </c>
+      <c r="N14" s="20">
+        <v>304913</v>
+      </c>
+      <c r="O14" s="17">
+        <v>30750</v>
+      </c>
+      <c r="P14" s="1">
         <v>176500000</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1218,7 +1485,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="11">
-        <f>SUM(D15+E15+F15)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D15" s="12">
@@ -1237,18 +1504,33 @@
         <v>26</v>
       </c>
       <c r="I15" s="12">
-        <f>SUM(G15-H15)</f>
+        <f t="shared" si="1"/>
         <v>-9</v>
       </c>
       <c r="J15" s="14">
-        <f>SUM(D15*3+E15)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="22">
+        <v>34</v>
+      </c>
+      <c r="L15" s="16">
+        <v>1</v>
+      </c>
+      <c r="M15" s="19">
+        <v>10</v>
+      </c>
+      <c r="N15" s="20">
+        <v>254865</v>
+      </c>
+      <c r="O15" s="17">
+        <v>26255</v>
+      </c>
+      <c r="P15" s="1">
         <v>222250000</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1256,7 +1538,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="11">
-        <f>SUM(D16+E16+F16)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D16" s="12">
@@ -1275,18 +1557,34 @@
         <v>27</v>
       </c>
       <c r="I16" s="12">
-        <f>SUM(G16-H16)</f>
+        <f t="shared" si="1"/>
         <v>-12</v>
       </c>
       <c r="J16" s="14">
-        <f>SUM(D16*3+E16)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="22">
+        <v>29</v>
+      </c>
+      <c r="L16" s="16">
+        <v>2</v>
+      </c>
+      <c r="M16" s="19">
+        <v>10</v>
+      </c>
+      <c r="N16" s="20">
+        <f>SUM(561510-52217)</f>
+        <v>509293</v>
+      </c>
+      <c r="O16" s="17">
+        <v>52409</v>
+      </c>
+      <c r="P16" s="1">
         <v>176000000</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:16">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1294,7 +1592,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="11">
-        <f>SUM(D17+E17+F17)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D17" s="12">
@@ -1313,18 +1611,34 @@
         <v>38</v>
       </c>
       <c r="I17" s="12">
-        <f>SUM(G17-H17)</f>
+        <f t="shared" si="1"/>
         <v>-19</v>
       </c>
       <c r="J17" s="14">
-        <f>SUM(D17*3+E17)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="22">
+        <v>32</v>
+      </c>
+      <c r="L17" s="16">
+        <v>1</v>
+      </c>
+      <c r="M17" s="19">
+        <v>10</v>
+      </c>
+      <c r="N17" s="20">
+        <f>SUM(341569-32485)</f>
+        <v>309084</v>
+      </c>
+      <c r="O17" s="17">
+        <v>33000</v>
+      </c>
+      <c r="P17" s="1">
         <v>94250000</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:16">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1332,7 +1646,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="11">
-        <f>SUM(D18+E18+F18)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D18" s="12">
@@ -1351,18 +1665,33 @@
         <v>38</v>
       </c>
       <c r="I18" s="12">
-        <f>SUM(G18-H18)</f>
+        <f t="shared" si="1"/>
         <v>-17</v>
       </c>
       <c r="J18" s="14">
-        <f>SUM(D18*3+E18)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="22">
+        <v>43</v>
+      </c>
+      <c r="L18" s="16">
+        <v>2</v>
+      </c>
+      <c r="M18" s="19">
+        <v>10</v>
+      </c>
+      <c r="N18" s="20">
+        <v>298205</v>
+      </c>
+      <c r="O18" s="17">
+        <v>32689</v>
+      </c>
+      <c r="P18" s="1">
         <v>261100000</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:16">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1370,7 +1699,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="11">
-        <f>SUM(D19+E19+F19)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D19" s="12">
@@ -1389,18 +1718,33 @@
         <v>41</v>
       </c>
       <c r="I19" s="12">
-        <f>SUM(G19-H19)</f>
+        <f t="shared" si="1"/>
         <v>-22</v>
       </c>
       <c r="J19" s="14">
-        <f>SUM(D19*3+E19)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="22">
+        <v>40</v>
+      </c>
+      <c r="L19" s="16">
+        <v>0</v>
+      </c>
+      <c r="M19" s="19">
+        <v>10</v>
+      </c>
+      <c r="N19" s="20">
+        <v>204229</v>
+      </c>
+      <c r="O19" s="17">
+        <v>22546</v>
+      </c>
+      <c r="P19" s="1">
         <v>178250000</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:16">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -1408,7 +1752,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="11">
-        <f>SUM(D20+E20+F20)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D20" s="12">
@@ -1427,18 +1771,33 @@
         <v>43</v>
       </c>
       <c r="I20" s="12">
-        <f>SUM(G20-H20)</f>
+        <f t="shared" si="1"/>
         <v>-25</v>
       </c>
       <c r="J20" s="14">
-        <f>SUM(D20*3+E20)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="22">
+        <v>34</v>
+      </c>
+      <c r="L20" s="16">
+        <v>2</v>
+      </c>
+      <c r="M20" s="19">
+        <v>10</v>
+      </c>
+      <c r="N20" s="20">
+        <v>242519</v>
+      </c>
+      <c r="O20" s="17">
+        <v>25700</v>
+      </c>
+      <c r="P20" s="1">
         <v>247500000</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:16">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -1446,7 +1805,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="11">
-        <f>SUM(D21+E21+F21)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D21" s="12">
@@ -1465,14 +1824,30 @@
         <v>35</v>
       </c>
       <c r="I21" s="12">
-        <f>SUM(G21-H21)</f>
+        <f t="shared" si="1"/>
         <v>-23</v>
       </c>
       <c r="J21" s="14">
-        <f>SUM(D21*3+E21)</f>
-        <v>10</v>
-      </c>
-      <c r="K21" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K21" s="22">
+        <v>28</v>
+      </c>
+      <c r="L21" s="16">
+        <v>2</v>
+      </c>
+      <c r="M21" s="19">
+        <v>10</v>
+      </c>
+      <c r="N21" s="20">
+        <f>SUM(251417-23715)</f>
+        <v>227702</v>
+      </c>
+      <c r="O21" s="17">
+        <v>24500</v>
+      </c>
+      <c r="P21" s="1">
         <v>127100000</v>
       </c>
     </row>
